--- a/thesis_experiments/p300/p300_exp_output/data_iterations.xlsx
+++ b/thesis_experiments/p300/p300_exp_output/data_iterations.xlsx
@@ -548,64 +548,64 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6340725806451613</v>
+        <v>0.6456653225806451</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6228150873965042</v>
+        <v>0.6510416666666666</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6817724068479355</v>
+        <v>0.6294058408862034</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6509615384615384</v>
+        <v>0.6400409626216078</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6341463414634146</v>
+        <v>0.6470881035340965</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6229508196721312</v>
+        <v>0.6510204081632653</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6805970149253732</v>
+        <v>0.6348258706467662</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6504992867332382</v>
+        <v>0.6428211586901763</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6376306620209059</v>
+        <v>0.646590343454455</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6264840182648402</v>
+        <v>0.6515930113052415</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6825870646766169</v>
+        <v>0.6308457711442786</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6533333333333333</v>
+        <v>0.641051567239636</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5211548033847685</v>
+        <v>0.5196615231458437</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5155684286748733</v>
+        <v>0.5155520995334371</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.708457711442786</v>
+        <v>0.6597014925373135</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5968147527242246</v>
+        <v>0.5787865560890442</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5266301642608263</v>
+        <v>0.5196615231458437</v>
       </c>
       <c r="T2" t="n">
-        <v>0.518646408839779</v>
+        <v>0.5158730158730159</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7472636815920398</v>
+        <v>0.6467661691542289</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6123114553607827</v>
+        <v>0.5739514348785872</v>
       </c>
     </row>
     <row r="3">
@@ -616,64 +616,64 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6411290322580645</v>
+        <v>0.6365927419354839</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6146938775510205</v>
+        <v>0.6343873517786561</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7583081570996979</v>
+        <v>0.6465256797583081</v>
       </c>
       <c r="F3" t="n">
-        <v>0.678990081154193</v>
+        <v>0.6403990024937656</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6436037829766053</v>
+        <v>0.6366351418616227</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6166263115415658</v>
+        <v>0.633107454017425</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7601990049751244</v>
+        <v>0.6507462686567164</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6809269162210339</v>
+        <v>0.6418056918547596</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6421105027376804</v>
+        <v>0.6371329019412643</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6155088852988692</v>
+        <v>0.6337209302325582</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7582089552238805</v>
+        <v>0.6507462686567164</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6794471689701294</v>
+        <v>0.642120765832106</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5291189646590343</v>
+        <v>0.5097063215530114</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5241605241605242</v>
+        <v>0.5079872204472844</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6368159203980099</v>
+        <v>0.6328358208955224</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5750224618149146</v>
+        <v>0.563579973416039</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5216525634644101</v>
+        <v>0.5241413638626182</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5166163141993958</v>
+        <v>0.5194290245836638</v>
       </c>
       <c r="U3" t="n">
-        <v>0.6805970149253732</v>
+        <v>0.6517412935323383</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5873765564620009</v>
+        <v>0.5781112091791705</v>
       </c>
     </row>
     <row r="4">
@@ -684,64 +684,64 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6365927419354839</v>
+        <v>0.6305443548387096</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6162393162393163</v>
+        <v>0.6359832635983264</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7260825780463243</v>
+        <v>0.6122860020140987</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6239096972806567</v>
       </c>
       <c r="G4" t="n">
-        <v>0.640119462419114</v>
+        <v>0.6281732205077153</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6192893401015228</v>
+        <v>0.6338174273858921</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7283582089552239</v>
+        <v>0.6079601990049751</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6694101508916324</v>
+        <v>0.6206196038598274</v>
       </c>
       <c r="K4" t="n">
-        <v>0.640119462419114</v>
+        <v>0.6296665007466401</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6186868686868687</v>
+        <v>0.6349534643226473</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7313432835820896</v>
+        <v>0.6109452736318408</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6703146374829002</v>
+        <v>0.6227180527383367</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5226480836236934</v>
+        <v>0.5151816824290691</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5189456342668863</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6268656716417911</v>
+        <v>0.6477611940298508</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5678233438485805</v>
+        <v>0.5720562390158171</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5400696864111498</v>
+        <v>0.5340965654554505</v>
       </c>
       <c r="T4" t="n">
-        <v>0.534468085106383</v>
+        <v>0.5265998457979953</v>
       </c>
       <c r="U4" t="n">
-        <v>0.6248756218905472</v>
+        <v>0.6796019900497512</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5761467889908257</v>
+        <v>0.5933970460469157</v>
       </c>
     </row>
     <row r="5">
@@ -752,64 +752,64 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6340725806451613</v>
+        <v>0.6365927419354839</v>
       </c>
       <c r="D5" t="n">
-        <v>0.653272101033295</v>
+        <v>0.6346534653465347</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5730110775427996</v>
+        <v>0.6455186304128903</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6105150214592274</v>
+        <v>0.6400399400898652</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6301642608262817</v>
+        <v>0.6346441015430563</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6478555304740407</v>
+        <v>0.6327130264446621</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5711442786069652</v>
+        <v>0.6427860696517413</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6070861977789529</v>
+        <v>0.6377097729516289</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6321553011448482</v>
+        <v>0.6376306620209059</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6497747747747747</v>
+        <v>0.6340755082284608</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5741293532338309</v>
+        <v>0.6517412935323383</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6096143687268885</v>
+        <v>0.6427870461236507</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5236436037829766</v>
+        <v>0.5017421602787456</v>
       </c>
       <c r="P5" t="n">
-        <v>0.518957345971564</v>
+        <v>0.5014184397163121</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6537313432835821</v>
+        <v>0.7034825870646766</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5785997357992073</v>
+        <v>0.5855072463768116</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5296167247386759</v>
+        <v>0.5161772025883524</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5225563909774437</v>
+        <v>0.5125666412795126</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6915422885572139</v>
+        <v>0.6696517412935323</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5952890792291221</v>
+        <v>0.5806729939603106</v>
       </c>
     </row>
     <row r="6">
@@ -820,64 +820,64 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6229838709677419</v>
+        <v>0.6345766129032258</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5985518905872889</v>
+        <v>0.636734693877551</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7492447129909365</v>
+        <v>0.6283987915407855</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6654740608228981</v>
+        <v>0.6325392802838317</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6261821801891488</v>
+        <v>0.6331508213041314</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6006339144215531</v>
+        <v>0.6350806451612904</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7542288557213931</v>
+        <v>0.6268656716417911</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6687251874724306</v>
+        <v>0.6309464196294442</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6251866600298656</v>
+        <v>0.633648581383773</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6001589825119237</v>
+        <v>0.6357214934409687</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7512437810945274</v>
+        <v>0.6268656716417911</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6672558550596553</v>
+        <v>0.6312625250501002</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5311100049776007</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5275590551181102</v>
+        <v>0.5245641838351822</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6</v>
+        <v>0.6587064676616915</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5614525139664804</v>
+        <v>0.5840317600352889</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5171727227476356</v>
+        <v>0.5181682429069189</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5144270403957131</v>
+        <v>0.5137546468401487</v>
       </c>
       <c r="U6" t="n">
-        <v>0.6208955223880597</v>
+        <v>0.6875621890547263</v>
       </c>
       <c r="V6" t="n">
-        <v>0.562669071235347</v>
+        <v>0.5880851063829788</v>
       </c>
     </row>
     <row r="7">
@@ -888,64 +888,64 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6381048387096774</v>
+        <v>0.6376008064516129</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6230975828111012</v>
+        <v>0.6335282651072125</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7009063444108762</v>
+        <v>0.6545820745216515</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6597156398104267</v>
+        <v>0.6438831104507181</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6396217023394724</v>
+        <v>0.633648581383773</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6244464127546502</v>
+        <v>0.6282173498570067</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7014925373134329</v>
+        <v>0.6557213930348259</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6607310215557638</v>
+        <v>0.6416747809152873</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6416127426580388</v>
+        <v>0.6366351418616227</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6262178919397697</v>
+        <v>0.6318312559923298</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7034825870646766</v>
+        <v>0.6557213930348259</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6626054358013121</v>
+        <v>0.6435546875</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5166749626679941</v>
+        <v>0.5286212045793928</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5132398753894081</v>
+        <v>0.5216095380029806</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6557213930348259</v>
+        <v>0.6965174129353234</v>
       </c>
       <c r="R7" t="n">
-        <v>0.5757972913936217</v>
+        <v>0.5965061780997019</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5395719263315082</v>
+        <v>0.5136884021901443</v>
       </c>
       <c r="T7" t="n">
-        <v>0.531496062992126</v>
+        <v>0.5103244837758112</v>
       </c>
       <c r="U7" t="n">
-        <v>0.6716417910447762</v>
+        <v>0.6885572139303483</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5934065934065935</v>
+        <v>0.5861922914019483</v>
       </c>
     </row>
     <row r="8">
@@ -959,61 +959,61 @@
         <v>0.6381048387096774</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.611879576891782</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7200402819738168</v>
+        <v>0.7573011077542799</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6657355679702048</v>
+        <v>0.6768676867686769</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6391239422598307</v>
+        <v>0.6421105027376804</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6194539249146758</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7223880597014926</v>
+        <v>0.7641791044776119</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6669728984841525</v>
+        <v>0.6811529933481153</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6386261821801892</v>
+        <v>0.6426082628173221</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6191289496157131</v>
+        <v>0.6152610441767068</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7213930348258707</v>
+        <v>0.7621890547263681</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6663602941176472</v>
+        <v>0.6808888888888889</v>
       </c>
       <c r="O8" t="n">
-        <v>0.519163763066202</v>
+        <v>0.5266301642608263</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5146286571642911</v>
+        <v>0.5242805755395683</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6825870646766169</v>
+        <v>0.5800995024875621</v>
       </c>
       <c r="R8" t="n">
-        <v>0.5868263473053893</v>
+        <v>0.5507794048181388</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5251368840219014</v>
+        <v>0.5430562468889994</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5190156599552572</v>
+        <v>0.5375323554788611</v>
       </c>
       <c r="U8" t="n">
-        <v>0.6925373134328359</v>
+        <v>0.6199004975124378</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5933503836317137</v>
+        <v>0.5757855822550831</v>
       </c>
     </row>
     <row r="9">
@@ -1024,64 +1024,64 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6381048387096774</v>
+        <v>0.6471774193548387</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6448893572181243</v>
+        <v>0.6367880485527544</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6163141993957704</v>
+        <v>0.6868076535750252</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6302780638516993</v>
+        <v>0.6608527131782945</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6396217023394724</v>
+        <v>0.6470881035340965</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6455958549222798</v>
+        <v>0.6365313653136532</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6199004975124378</v>
+        <v>0.6865671641791045</v>
       </c>
       <c r="J9" t="n">
-        <v>0.63248730964467</v>
+        <v>0.6606031594064147</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6391239422598307</v>
+        <v>0.6450970632155301</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6443298969072165</v>
+        <v>0.6334552102376599</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6218905472636815</v>
+        <v>0.6895522388059702</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6329113924050633</v>
+        <v>0.6603144354454502</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5181682429069189</v>
+        <v>0.5151816824290691</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5124077800134138</v>
+        <v>0.5124099279423538</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7601990049751244</v>
+        <v>0.6368159203980099</v>
       </c>
       <c r="R9" t="n">
-        <v>0.6121794871794871</v>
+        <v>0.5678793256433008</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5196615231458437</v>
+        <v>0.5131906421105027</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5137931034482759</v>
+        <v>0.5105716523101018</v>
       </c>
       <c r="U9" t="n">
-        <v>0.7412935323383084</v>
+        <v>0.6487562189054726</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6069246435845215</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="10">
@@ -1092,64 +1092,64 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6229838709677419</v>
+        <v>0.6355846774193549</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6170009551098377</v>
+        <v>0.6409185803757829</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6505538771399798</v>
+        <v>0.6183282980866063</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6333333333333332</v>
+        <v>0.629420809841107</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6276754604280737</v>
+        <v>0.6366351418616227</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6215704824976348</v>
+        <v>0.6436781609195402</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6537313432835821</v>
+        <v>0.6129353233830845</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6372453928225024</v>
+        <v>0.6279306829765544</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6217023394723743</v>
+        <v>0.6351418616226978</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6158940397350994</v>
+        <v>0.6402061855670103</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6477611940298508</v>
+        <v>0.6179104477611941</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6314258001939865</v>
+        <v>0.6288607594936708</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5226480836236934</v>
+        <v>0.4977600796416127</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5178018575851393</v>
+        <v>0.4983443708609271</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6656716417910448</v>
+        <v>0.5990049751243781</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5824989116238571</v>
+        <v>0.5440578400361501</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5097063215530114</v>
+        <v>0.5221503235440518</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5075528700906344</v>
+        <v>0.5179282868525896</v>
       </c>
       <c r="U10" t="n">
-        <v>0.6686567164179105</v>
+        <v>0.6467661691542289</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5770717045942465</v>
+        <v>0.5752212389380532</v>
       </c>
     </row>
     <row r="11">
@@ -1160,64 +1160,64 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6290322580645161</v>
+        <v>0.6431451612903226</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6215704824976348</v>
+        <v>0.6306141154903758</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6616314199395771</v>
+        <v>0.6928499496475328</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6409756097560976</v>
+        <v>0.6602687140115163</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6281732205077153</v>
+        <v>0.6431060228969636</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6201117318435754</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6626865671641791</v>
+        <v>0.6925373134328359</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6406926406926406</v>
+        <v>0.6600284495021337</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6306620209059234</v>
+        <v>0.6431060228969636</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6230121608980356</v>
+        <v>0.6309090909090909</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6626865671641791</v>
+        <v>0.690547263681592</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6422372227579557</v>
+        <v>0.6593824228028503</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5340965654554505</v>
+        <v>0.5171727227476356</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5262757044935262</v>
+        <v>0.5139888089528377</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6875621890547263</v>
+        <v>0.6398009950248756</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5962036238136325</v>
+        <v>0.5700354609929078</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5276256844201095</v>
+        <v>0.5246391239422599</v>
       </c>
       <c r="T11" t="n">
-        <v>0.5224358974358975</v>
+        <v>0.520764119601329</v>
       </c>
       <c r="U11" t="n">
-        <v>0.6487562189054726</v>
+        <v>0.6238805970149254</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5787838437638704</v>
+        <v>0.5676776822091445</v>
       </c>
     </row>
     <row r="12">
@@ -1228,64 +1228,64 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6340725806451613</v>
+        <v>0.641633064516129</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6403785488958991</v>
+        <v>0.650319829424307</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6132930513595166</v>
+        <v>0.6143001007049346</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6265432098765431</v>
+        <v>0.6317969963749352</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6331508213041314</v>
+        <v>0.6396217023394724</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6392931392931392</v>
+        <v>0.648363252375924</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6119402985074627</v>
+        <v>0.6109452736318408</v>
       </c>
       <c r="J12" t="n">
-        <v>0.625317742755465</v>
+        <v>0.6290983606557378</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6311597809855649</v>
+        <v>0.6416127426580388</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6375</v>
+        <v>0.6492146596858639</v>
       </c>
       <c r="M12" t="n">
-        <v>0.608955223880597</v>
+        <v>0.6169154228855721</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6229007633587786</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="O12" t="n">
-        <v>0.532105525136884</v>
+        <v>0.5500248880039821</v>
       </c>
       <c r="P12" t="n">
-        <v>0.5258964143426295</v>
+        <v>0.5398579321231255</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6567164179104478</v>
+        <v>0.6805970149253732</v>
       </c>
       <c r="R12" t="n">
-        <v>0.5840707964601769</v>
+        <v>0.602112676056338</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5316077650572424</v>
+        <v>0.5301144848183176</v>
       </c>
       <c r="T12" t="n">
-        <v>0.5256410256410257</v>
+        <v>0.5251028806584362</v>
       </c>
       <c r="U12" t="n">
-        <v>0.6527363184079602</v>
+        <v>0.6348258706467662</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5823346648912561</v>
+        <v>0.5747747747747748</v>
       </c>
     </row>
     <row r="13">
@@ -1296,64 +1296,64 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6355846774193549</v>
+        <v>0.6315524193548387</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6313229571984436</v>
+        <v>0.609715242881072</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6535750251762337</v>
+        <v>0.7331319234642497</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6422563087580406</v>
+        <v>0.6657521719250113</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6351418616226978</v>
+        <v>0.6311597809855649</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6292775665399239</v>
+        <v>0.6096345514950167</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6587064676616915</v>
+        <v>0.7303482587064677</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6436558094312104</v>
+        <v>0.6645540968764146</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6376306620209059</v>
+        <v>0.6296665007466401</v>
       </c>
       <c r="L13" t="n">
-        <v>0.631031220435194</v>
+        <v>0.6077621800165153</v>
       </c>
       <c r="M13" t="n">
-        <v>0.663681592039801</v>
+        <v>0.7323383084577114</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6469447138700292</v>
+        <v>0.6642599277978339</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5335988053758088</v>
+        <v>0.5017421602787456</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5247813411078717</v>
+        <v>0.5016863406408094</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7164179104477612</v>
+        <v>0.5920398009950248</v>
       </c>
       <c r="R13" t="n">
-        <v>0.6058056373580143</v>
+        <v>0.5431309904153353</v>
       </c>
       <c r="S13" t="n">
-        <v>0.5156794425087108</v>
+        <v>0.5146839223494276</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5120663650075414</v>
+        <v>0.5120967741935484</v>
       </c>
       <c r="U13" t="n">
-        <v>0.6756218905472637</v>
+        <v>0.6318407960199005</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5825825825825826</v>
+        <v>0.5657015590200445</v>
       </c>
     </row>
     <row r="14">
@@ -1364,64 +1364,64 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6431451612903226</v>
+        <v>0.6234879032258065</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6376811594202898</v>
+        <v>0.6162570888468809</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6646525679758308</v>
+        <v>0.6565961732124874</v>
       </c>
       <c r="F14" t="n">
-        <v>0.650887573964497</v>
+        <v>0.6357874207703559</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6441015430562469</v>
+        <v>0.6251866600298656</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6383587786259542</v>
+        <v>0.6171003717472119</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6656716417910448</v>
+        <v>0.6606965174129353</v>
       </c>
       <c r="J14" t="n">
-        <v>0.651729176814418</v>
+        <v>0.6381547333012975</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6436037829766053</v>
+        <v>0.6251866600298656</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6372269705603039</v>
+        <v>0.6175373134328358</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6676616915422886</v>
+        <v>0.6587064676616915</v>
       </c>
       <c r="N14" t="n">
-        <v>0.652089407191448</v>
+        <v>0.6374578719306692</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5390741662518665</v>
+        <v>0.5196615231458437</v>
       </c>
       <c r="P14" t="n">
-        <v>0.5355535553555355</v>
+        <v>0.5169204737732657</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.5920398009950248</v>
+        <v>0.6079601990049751</v>
       </c>
       <c r="R14" t="n">
-        <v>0.5623818525519849</v>
+        <v>0.5587562871513488</v>
       </c>
       <c r="S14" t="n">
-        <v>0.5331010452961672</v>
+        <v>0.5181682429069189</v>
       </c>
       <c r="T14" t="n">
-        <v>0.5296722763507529</v>
+        <v>0.5162423178226514</v>
       </c>
       <c r="U14" t="n">
-        <v>0.5950248756218905</v>
+        <v>0.5850746268656717</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5604498594189317</v>
+        <v>0.5485074626865672</v>
       </c>
     </row>
     <row r="15">
@@ -1432,64 +1432,64 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6315524193548387</v>
+        <v>0.6436491935483871</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6217472118959108</v>
+        <v>0.6462167689161554</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6737160120845922</v>
+        <v>0.6364551863041289</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6466892218463026</v>
+        <v>0.641298833079655</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6321553011448482</v>
+        <v>0.6445993031358885</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6220183486238532</v>
+        <v>0.6462311557788945</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6746268656716418</v>
+        <v>0.6398009950248756</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6472553699284009</v>
+        <v>0.6430000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6326530612244898</v>
+        <v>0.6416127426580388</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6221408966148216</v>
+        <v>0.6437941473259334</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6766169154228856</v>
+        <v>0.6348258706467662</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6482364156339371</v>
+        <v>0.6392785571142285</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5082130413140866</v>
+        <v>0.507715281234445</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5070189925681255</v>
+        <v>0.506568144499179</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6109452736318408</v>
+        <v>0.6139303482587065</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5541516245487366</v>
+        <v>0.5551057130004498</v>
       </c>
       <c r="S15" t="n">
-        <v>0.4957690393230463</v>
+        <v>0.5201592832254853</v>
       </c>
       <c r="T15" t="n">
-        <v>0.4968304278922345</v>
+        <v>0.5165723524656427</v>
       </c>
       <c r="U15" t="n">
-        <v>0.6238805970149254</v>
+        <v>0.6358208955223881</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5531539479488311</v>
+        <v>0.5700267618198038</v>
       </c>
     </row>
     <row r="16">
@@ -1500,64 +1500,64 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.625</v>
+        <v>0.6345766129032258</v>
       </c>
       <c r="D16" t="n">
-        <v>0.642939150401837</v>
+        <v>0.6288461538461538</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5639476334340383</v>
+        <v>0.6586102719033232</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6008583690987125</v>
+        <v>0.6433841613379242</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6261821801891488</v>
+        <v>0.6396217023394724</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6443181818181818</v>
+        <v>0.6339370829361296</v>
       </c>
       <c r="I16" t="n">
-        <v>0.564179104477612</v>
+        <v>0.6616915422885572</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6015915119363396</v>
+        <v>0.6475170399221032</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6236933797909407</v>
+        <v>0.633648581383773</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6403607666290868</v>
+        <v>0.6270066100094429</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5651741293532339</v>
+        <v>0.6606965174129353</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6004228329809725</v>
+        <v>0.6434108527131783</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5261324041811847</v>
+        <v>0.5211548033847685</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5208825847123719</v>
+        <v>0.5179615705931495</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6577114427860696</v>
+        <v>0.6169154228855721</v>
       </c>
       <c r="R16" t="n">
-        <v>0.5813544415127527</v>
+        <v>0.5631244323342415</v>
       </c>
       <c r="S16" t="n">
-        <v>0.5231458437033349</v>
+        <v>0.5450472872075659</v>
       </c>
       <c r="T16" t="n">
-        <v>0.5176824680210684</v>
+        <v>0.5391903531438416</v>
       </c>
       <c r="U16" t="n">
-        <v>0.6845771144278607</v>
+        <v>0.6228855721393035</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5895458440445586</v>
+        <v>0.5780240073868883</v>
       </c>
     </row>
     <row r="17">
@@ -1568,64 +1568,64 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6365927419354839</v>
+        <v>0.5952620967741935</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6338582677165354</v>
+        <v>0.5961538461538461</v>
       </c>
       <c r="E17" t="n">
-        <v>0.648539778449144</v>
+        <v>0.5931520644511581</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6411149825783972</v>
+        <v>0.5946491670873295</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6396217023394724</v>
+        <v>0.6017919362867098</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6365403304178814</v>
+        <v>0.6026026026026026</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6517412935323383</v>
+        <v>0.5990049751243781</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6440511307767944</v>
+        <v>0.6007984031936128</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6391239422598307</v>
+        <v>0.5998008959681433</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6361867704280155</v>
+        <v>0.6</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6507462686567164</v>
+        <v>0.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.6433841613379243</v>
+        <v>0.6</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5017421602787456</v>
+        <v>0.5062220009955202</v>
       </c>
       <c r="P17" t="n">
-        <v>0.5014858841010401</v>
+        <v>0.5101721439749609</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.6716417910447762</v>
+        <v>0.3243781094527363</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5742237345810294</v>
+        <v>0.3965936739659368</v>
       </c>
       <c r="S17" t="n">
-        <v>0.5082130413140866</v>
+        <v>0.5161772025883524</v>
       </c>
       <c r="T17" t="n">
-        <v>0.5058661145617668</v>
+        <v>0.5257410296411856</v>
       </c>
       <c r="U17" t="n">
-        <v>0.7293532338308458</v>
+        <v>0.3353233830845771</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5973920130399348</v>
+        <v>0.4094775212636695</v>
       </c>
     </row>
     <row r="18">
@@ -1636,64 +1636,64 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6370967741935484</v>
+        <v>0.6154233870967742</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6405767250257467</v>
+        <v>0.617827868852459</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6263846928499497</v>
+        <v>0.6072507552870091</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6334012219959267</v>
+        <v>0.6124936515997969</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6381284221005475</v>
+        <v>0.6147336983573918</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6418367346938776</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6258706467661691</v>
+        <v>0.6059701492537314</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6337531486146095</v>
+        <v>0.6114457831325302</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6361373817819811</v>
+        <v>0.6192135390741662</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6397959183673469</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6238805970149254</v>
+        <v>0.6049751243781094</v>
       </c>
       <c r="N18" t="n">
-        <v>0.6317380352644837</v>
+        <v>0.6138313982836952</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5221503235440518</v>
+        <v>0.5176704828272772</v>
       </c>
       <c r="P18" t="n">
-        <v>0.5187656380316931</v>
+        <v>0.5145161290322581</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.6189054726368159</v>
+        <v>0.6348258706467662</v>
       </c>
       <c r="R18" t="n">
-        <v>0.5644283121597096</v>
+        <v>0.5683741648106905</v>
       </c>
       <c r="S18" t="n">
-        <v>0.5271279243404678</v>
+        <v>0.5107018417122947</v>
       </c>
       <c r="T18" t="n">
-        <v>0.5239755884917175</v>
+        <v>0.5088709677419355</v>
       </c>
       <c r="U18" t="n">
-        <v>0.5980099502487563</v>
+        <v>0.6278606965174129</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5585501858736061</v>
+        <v>0.5621380846325167</v>
       </c>
     </row>
     <row r="19">
@@ -1704,64 +1704,64 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6411290322580645</v>
+        <v>0.6234879032258065</v>
       </c>
       <c r="D19" t="n">
-        <v>0.632173095014111</v>
+        <v>0.6222664015904572</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6767371601208459</v>
+        <v>0.6304128902316214</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6536964980544747</v>
+        <v>0.6263131565782891</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6406172224987556</v>
+        <v>0.6241911398705824</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6313834726090993</v>
+        <v>0.6230314960629921</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6766169154228856</v>
+        <v>0.6298507462686567</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6532180595581172</v>
+        <v>0.6264225630875804</v>
       </c>
       <c r="K19" t="n">
-        <v>0.640119462419114</v>
+        <v>0.6261821801891488</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6315298507462687</v>
+        <v>0.6245098039215686</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6736318407960199</v>
+        <v>0.6338308457711442</v>
       </c>
       <c r="N19" t="n">
-        <v>0.6519017814155031</v>
+        <v>0.6291358024691358</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5131906421105027</v>
+        <v>0.5216525634644101</v>
       </c>
       <c r="P19" t="n">
-        <v>0.5112970711297071</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.6079601990049751</v>
+        <v>0.6567164179104478</v>
       </c>
       <c r="R19" t="n">
-        <v>0.5554545454545454</v>
+        <v>0.5786935554581325</v>
       </c>
       <c r="S19" t="n">
-        <v>0.5236436037829766</v>
+        <v>0.5166749626679941</v>
       </c>
       <c r="T19" t="n">
-        <v>0.5194805194805194</v>
+        <v>0.5129179331306991</v>
       </c>
       <c r="U19" t="n">
-        <v>0.6368159203980099</v>
+        <v>0.6716417910447762</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5721949038891372</v>
+        <v>0.5816458423093495</v>
       </c>
     </row>
     <row r="20">
@@ -1772,64 +1772,64 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6370967741935484</v>
+        <v>0.6365927419354839</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6251145737855178</v>
+        <v>0.6166380789022299</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6868076535750252</v>
+        <v>0.7240684793554885</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6545105566218811</v>
+        <v>0.6660490968040761</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6361373817819811</v>
+        <v>0.6391239422598307</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6234234234234234</v>
+        <v>0.6188455008488964</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6885572139303483</v>
+        <v>0.7253731343283583</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6543735224586289</v>
+        <v>0.6678882272102612</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6356396217023395</v>
+        <v>0.6386261821801892</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6226415094339622</v>
+        <v>0.618925831202046</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6895522388059702</v>
+        <v>0.7223880597014926</v>
       </c>
       <c r="N20" t="n">
-        <v>0.6543909348441926</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="O20" t="n">
         <v>0.5331010452961672</v>
       </c>
       <c r="P20" t="n">
-        <v>0.5278470490440565</v>
+        <v>0.5281276238455079</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.6318407960199005</v>
+        <v>0.6258706467661691</v>
       </c>
       <c r="R20" t="n">
-        <v>0.5751811594202899</v>
+        <v>0.5728597449908924</v>
       </c>
       <c r="S20" t="n">
-        <v>0.5360876057740169</v>
+        <v>0.538576406172225</v>
       </c>
       <c r="T20" t="n">
-        <v>0.5317115551694179</v>
+        <v>0.5303265940902022</v>
       </c>
       <c r="U20" t="n">
-        <v>0.608955223880597</v>
+        <v>0.6786069651741293</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5677179962894249</v>
+        <v>0.5953731994762113</v>
       </c>
     </row>
     <row r="21">
@@ -1840,64 +1840,64 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6330645161290323</v>
+        <v>0.6360887096774194</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6179875333926982</v>
+        <v>0.6452304394426581</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6988922457200403</v>
+        <v>0.6062437059415912</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6559546313799622</v>
+        <v>0.6251298026998963</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6351418616226978</v>
+        <v>0.6381284221005475</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6195079086115993</v>
+        <v>0.6466244725738397</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7014925373134329</v>
+        <v>0.6099502487562189</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6579561362575829</v>
+        <v>0.6277521761392729</v>
       </c>
       <c r="K21" t="n">
-        <v>0.633648581383773</v>
+        <v>0.6331508213041314</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6185022026431718</v>
+        <v>0.6410526315789473</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6985074626865672</v>
+        <v>0.6059701492537314</v>
       </c>
       <c r="N21" t="n">
-        <v>0.6560747663551402</v>
+        <v>0.6230179028132992</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5057242409158785</v>
+        <v>0.5032354405176704</v>
       </c>
       <c r="P21" t="n">
-        <v>0.5047694753577107</v>
+        <v>0.503030303030303</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.6318407960199005</v>
+        <v>0.5781094527363184</v>
       </c>
       <c r="R21" t="n">
-        <v>0.5612019443216969</v>
+        <v>0.537962962962963</v>
       </c>
       <c r="S21" t="n">
-        <v>0.5166749626679941</v>
+        <v>0.5181682429069189</v>
       </c>
       <c r="T21" t="n">
-        <v>0.5126865671641792</v>
+        <v>0.5156118143459916</v>
       </c>
       <c r="U21" t="n">
-        <v>0.6835820895522388</v>
+        <v>0.6079601990049751</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5859275053304903</v>
+        <v>0.5579908675799086</v>
       </c>
     </row>
     <row r="22">
@@ -1908,64 +1908,64 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6340725806451613</v>
+        <v>0.6370967741935484</v>
       </c>
       <c r="D22" t="n">
-        <v>0.617828773168579</v>
+        <v>0.6374622356495468</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7049345417925479</v>
+        <v>0.6374622356495468</v>
       </c>
       <c r="F22" t="n">
-        <v>0.658513640639699</v>
+        <v>0.6374622356495468</v>
       </c>
       <c r="G22" t="n">
-        <v>0.633648581383773</v>
+        <v>0.6356396217023395</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6176727909011374</v>
+        <v>0.6355511420059583</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7024875621890547</v>
+        <v>0.6368159203980099</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6573556797020483</v>
+        <v>0.6361829025844931</v>
       </c>
       <c r="K22" t="n">
-        <v>0.633648581383773</v>
+        <v>0.6391239422598307</v>
       </c>
       <c r="L22" t="n">
-        <v>0.617467248908297</v>
+        <v>0.6394422310756972</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7034825870646766</v>
+        <v>0.6388059701492538</v>
       </c>
       <c r="N22" t="n">
-        <v>0.6576744186046511</v>
+        <v>0.6391239422598308</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5365853658536586</v>
+        <v>0.5266301642608263</v>
       </c>
       <c r="P22" t="n">
-        <v>0.5283307810107197</v>
+        <v>0.5212933753943217</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.6865671641791045</v>
+        <v>0.6577114427860696</v>
       </c>
       <c r="R22" t="n">
-        <v>0.5971440934660319</v>
+        <v>0.5816102067751869</v>
       </c>
       <c r="S22" t="n">
-        <v>0.5067197610751618</v>
+        <v>0.5156794425087108</v>
       </c>
       <c r="T22" t="n">
-        <v>0.5052160953800298</v>
+        <v>0.5137457044673539</v>
       </c>
       <c r="U22" t="n">
-        <v>0.6746268656716418</v>
+        <v>0.5950248756218905</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5777588410737112</v>
+        <v>0.5514061779621945</v>
       </c>
     </row>
     <row r="23">
@@ -1976,64 +1976,64 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6365927419354839</v>
+        <v>0.6370967741935484</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6611374407582938</v>
+        <v>0.6308724832214765</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5619335347432024</v>
+        <v>0.6626384692849949</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6075122482308111</v>
+        <v>0.6463654223968566</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6396217023394724</v>
+        <v>0.6341463414634146</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6631823461091754</v>
+        <v>0.6283269961977186</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5681592039800994</v>
+        <v>0.6577114427860696</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6120042872454448</v>
+        <v>0.6426835196888673</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6356396217023395</v>
+        <v>0.6416127426580388</v>
       </c>
       <c r="L23" t="n">
-        <v>0.6592765460910152</v>
+        <v>0.6353276353276354</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5621890547263682</v>
+        <v>0.6656716417910448</v>
       </c>
       <c r="N23" t="n">
-        <v>0.6068743286788401</v>
+        <v>0.6501457725947523</v>
       </c>
       <c r="O23" t="n">
         <v>0.4972623195619711</v>
       </c>
       <c r="P23" t="n">
-        <v>0.4982841455044612</v>
+        <v>0.4982529699510831</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.7223880597014926</v>
+        <v>0.709452736318408</v>
       </c>
       <c r="R23" t="n">
-        <v>0.5897644191714053</v>
+        <v>0.5853858784893268</v>
       </c>
       <c r="S23" t="n">
-        <v>0.5007466401194625</v>
+        <v>0.5042309606769537</v>
       </c>
       <c r="T23" t="n">
-        <v>0.5007507507507507</v>
+        <v>0.5031358885017422</v>
       </c>
       <c r="U23" t="n">
-        <v>0.663681592039801</v>
+        <v>0.718407960199005</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5708172871202397</v>
+        <v>0.5918032786885247</v>
       </c>
     </row>
     <row r="24">
@@ -2044,64 +2044,64 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6365927419354839</v>
+        <v>0.6229838709677419</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6154499151103565</v>
+        <v>0.615675165250236</v>
       </c>
       <c r="E24" t="n">
-        <v>0.730110775427996</v>
+        <v>0.6565961732124874</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6678949792722246</v>
+        <v>0.6354775828460039</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6381284221005475</v>
+        <v>0.6212045793927327</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6162207357859532</v>
+        <v>0.6135940409683427</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.6557213930348259</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6696955929123125</v>
+        <v>0.6339586339586339</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6371329019412643</v>
+        <v>0.6231956197112991</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6151919866444073</v>
+        <v>0.6154562383612663</v>
       </c>
       <c r="M24" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.6577114427860696</v>
       </c>
       <c r="N24" t="n">
-        <v>0.6690876078075352</v>
+        <v>0.6358826358826359</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5435540069686411</v>
+        <v>0.5136884021901443</v>
       </c>
       <c r="P24" t="n">
-        <v>0.5330330330330331</v>
+        <v>0.5110584518167457</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7064676616915423</v>
+        <v>0.6437810945273632</v>
       </c>
       <c r="R24" t="n">
-        <v>0.6076166024818144</v>
+        <v>0.5697930427124615</v>
       </c>
       <c r="S24" t="n">
-        <v>0.5216525634644101</v>
+        <v>0.4952712792434047</v>
       </c>
       <c r="T24" t="n">
-        <v>0.5171606864274571</v>
+        <v>0.4963913392141139</v>
       </c>
       <c r="U24" t="n">
-        <v>0.6597014925373135</v>
+        <v>0.6159203980099502</v>
       </c>
       <c r="V24" t="n">
-        <v>0.579798863139484</v>
+        <v>0.5497335701598579</v>
       </c>
     </row>
     <row r="25">
@@ -2112,64 +2112,64 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6320564516129032</v>
+        <v>0.6244959677419355</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6232427366447985</v>
+        <v>0.62109375</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6696878147029205</v>
+        <v>0.6404833836858006</v>
       </c>
       <c r="F25" t="n">
-        <v>0.645631067961165</v>
+        <v>0.630639563708478</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6346441015430563</v>
+        <v>0.624688899950224</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6255792400370713</v>
+        <v>0.6205571565802114</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6716417910447762</v>
+        <v>0.6427860696517413</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6477927063339731</v>
+        <v>0.6314760508308896</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6321553011448482</v>
+        <v>0.6281732205077153</v>
       </c>
       <c r="L25" t="n">
-        <v>0.6238361266294227</v>
+        <v>0.6240384615384615</v>
       </c>
       <c r="M25" t="n">
+        <v>0.6457711442786069</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.634718826405868</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.5500248880039821</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.541978387364921</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.6487562189054726</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.5905797101449275</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.5335988053758088</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.5267295597484277</v>
+      </c>
+      <c r="U25" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="N25" t="n">
-        <v>0.6445406445406445</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.5335988053758088</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.5274636510500808</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.6497512437810945</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.5822559072670531</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.5236436037829766</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0.5203045685279187</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.6119402985074627</v>
-      </c>
       <c r="V25" t="n">
-        <v>0.5624142661179699</v>
+        <v>0.5884936319718929</v>
       </c>
     </row>
     <row r="26">
@@ -2180,64 +2180,64 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6224798387096774</v>
+        <v>0.6381048387096774</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6042735042735042</v>
+        <v>0.6228775692582663</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7119838872104733</v>
+        <v>0.701913393756294</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6537216828478964</v>
+        <v>0.6600378787878788</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6241911398705824</v>
+        <v>0.6421105027376804</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6053962900505903</v>
+        <v>0.6265486725663717</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7144278606965174</v>
+        <v>0.7044776119402985</v>
       </c>
       <c r="J26" t="n">
-        <v>0.655408489274304</v>
+        <v>0.663231850117096</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6207068193130911</v>
+        <v>0.6396217023394724</v>
       </c>
       <c r="L26" t="n">
-        <v>0.6020151133501259</v>
+        <v>0.6246672582076309</v>
       </c>
       <c r="M26" t="n">
-        <v>0.7134328358208956</v>
+        <v>0.700497512437811</v>
       </c>
       <c r="N26" t="n">
-        <v>0.6530054644808743</v>
+        <v>0.6604127579737337</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5161772025883524</v>
+        <v>0.5266301642608263</v>
       </c>
       <c r="P26" t="n">
-        <v>0.5117437722419929</v>
+        <v>0.5206738131699847</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.7154228855721393</v>
+        <v>0.6766169154228856</v>
       </c>
       <c r="R26" t="n">
-        <v>0.5966804979253113</v>
+        <v>0.5884898312418867</v>
       </c>
       <c r="S26" t="n">
-        <v>0.5271279243404678</v>
+        <v>0.5146839223494276</v>
       </c>
       <c r="T26" t="n">
-        <v>0.5195729537366548</v>
+        <v>0.511177347242921</v>
       </c>
       <c r="U26" t="n">
-        <v>0.7263681592039801</v>
+        <v>0.6825870646766169</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6058091286307055</v>
+        <v>0.5845760545377077</v>
       </c>
     </row>
     <row r="27">
@@ -2248,64 +2248,64 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6310483870967742</v>
+        <v>0.641633064516129</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6070549630844955</v>
+        <v>0.6161449752883031</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7452165156092648</v>
+        <v>0.7532729103726082</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6690777576853526</v>
+        <v>0.6778432260987767</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6296665007466401</v>
+        <v>0.6426082628173221</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6060113728675873</v>
+        <v>0.6161943319838057</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7422885572139304</v>
+        <v>0.7572139303482587</v>
       </c>
       <c r="J27" t="n">
-        <v>0.667262969588551</v>
+        <v>0.6794642857142857</v>
       </c>
       <c r="K27" t="n">
-        <v>0.6306620209059234</v>
+        <v>0.6411149825783972</v>
       </c>
       <c r="L27" t="n">
-        <v>0.6069975589910497</v>
+        <v>0.6154471544715447</v>
       </c>
       <c r="M27" t="n">
-        <v>0.7422885572139304</v>
+        <v>0.7532338308457711</v>
       </c>
       <c r="N27" t="n">
-        <v>0.6678603401969562</v>
+        <v>0.6774049217002237</v>
       </c>
       <c r="O27" t="n">
-        <v>0.5355898456943753</v>
+        <v>0.5186660029865605</v>
       </c>
       <c r="P27" t="n">
-        <v>0.5291734197730956</v>
+        <v>0.5162116040955631</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.6497512437810945</v>
+        <v>0.6019900497512438</v>
       </c>
       <c r="R27" t="n">
-        <v>0.5832961143367574</v>
+        <v>0.5558107487367937</v>
       </c>
       <c r="S27" t="n">
-        <v>0.5241413638626182</v>
+        <v>0.5226480836236934</v>
       </c>
       <c r="T27" t="n">
-        <v>0.5194598888006354</v>
+        <v>0.5184294871794872</v>
       </c>
       <c r="U27" t="n">
-        <v>0.6507462686567164</v>
+        <v>0.6437810945273632</v>
       </c>
       <c r="V27" t="n">
-        <v>0.57773851590106</v>
+        <v>0.5743453173546383</v>
       </c>
     </row>
     <row r="28">
@@ -2316,64 +2316,64 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6360887096774194</v>
+        <v>0.6224798387096774</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6364551863041289</v>
+        <v>0.6142322097378277</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6364551863041289</v>
+        <v>0.6606243705941591</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6364551863041289</v>
+        <v>0.6365841824357109</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6386261821801892</v>
+        <v>0.6256844201095072</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6399197592778335</v>
+        <v>0.6163753449862005</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6348258706467662</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6373626373626373</v>
+        <v>0.6405353728489483</v>
       </c>
       <c r="K28" t="n">
-        <v>0.6366351418616227</v>
+        <v>0.6241911398705824</v>
       </c>
       <c r="L28" t="n">
-        <v>0.6379137412236711</v>
+        <v>0.6151012891344383</v>
       </c>
       <c r="M28" t="n">
-        <v>0.6328358208955224</v>
+        <v>0.6646766169154229</v>
       </c>
       <c r="N28" t="n">
-        <v>0.6353646353646354</v>
+        <v>0.6389287422285987</v>
       </c>
       <c r="O28" t="n">
-        <v>0.519163763066202</v>
+        <v>0.5296167247386759</v>
       </c>
       <c r="P28" t="n">
-        <v>0.5156878519710378</v>
+        <v>0.522354694485842</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.6378109452736318</v>
+        <v>0.6975124378109453</v>
       </c>
       <c r="R28" t="n">
-        <v>0.5702846975088968</v>
+        <v>0.5973583297827013</v>
       </c>
       <c r="S28" t="n">
-        <v>0.5271279243404678</v>
+        <v>0.4962667994026879</v>
       </c>
       <c r="T28" t="n">
-        <v>0.5221238938053098</v>
+        <v>0.4974619289340101</v>
       </c>
       <c r="U28" t="n">
-        <v>0.6457711442786069</v>
+        <v>0.6825870646766169</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5774021352313168</v>
+        <v>0.575503355704698</v>
       </c>
     </row>
     <row r="29">
@@ -2384,64 +2384,64 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6340725806451613</v>
+        <v>0.6391129032258065</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6219178082191781</v>
+        <v>0.6246624662466247</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6858006042296072</v>
+        <v>0.6988922457200403</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6522988505747126</v>
+        <v>0.6596958174904943</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6296665007466401</v>
+        <v>0.6411149825783972</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6172506738544474</v>
+        <v>0.6265597147950089</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6835820895522388</v>
+        <v>0.699502487562189</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6487252124645893</v>
+        <v>0.6610249177244946</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6341463414634146</v>
+        <v>0.6396217023394724</v>
       </c>
       <c r="L29" t="n">
-        <v>0.6216216216216216</v>
+        <v>0.6248888888888889</v>
       </c>
       <c r="M29" t="n">
-        <v>0.6865671641791045</v>
+        <v>0.699502487562189</v>
       </c>
       <c r="N29" t="n">
-        <v>0.652482269503546</v>
+        <v>0.6600938967136151</v>
       </c>
       <c r="O29" t="n">
-        <v>0.519163763066202</v>
+        <v>0.5211548033847685</v>
       </c>
       <c r="P29" t="n">
-        <v>0.5152941176470588</v>
+        <v>0.5183917878528657</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.6537313432835821</v>
+        <v>0.6029850746268657</v>
       </c>
       <c r="R29" t="n">
-        <v>0.5763157894736842</v>
+        <v>0.5574977000919963</v>
       </c>
       <c r="S29" t="n">
-        <v>0.5052264808362369</v>
+        <v>0.5062220009955202</v>
       </c>
       <c r="T29" t="n">
-        <v>0.5042471042471043</v>
+        <v>0.5051383399209486</v>
       </c>
       <c r="U29" t="n">
-        <v>0.6497512437810945</v>
+        <v>0.6358208955223881</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5678260869565217</v>
+        <v>0.5629955947136563</v>
       </c>
     </row>
     <row r="30">
@@ -2452,64 +2452,64 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6285282258064516</v>
+        <v>0.623991935483871</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6272365805168986</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6354481369587109</v>
+        <v>0.6696878147029205</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6313156578289144</v>
+        <v>0.6406551059730251</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6266799402687905</v>
+        <v>0.6291687406669985</v>
       </c>
       <c r="H30" t="n">
-        <v>0.6234269119070668</v>
+        <v>0.6188299817184644</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6407960199004975</v>
+        <v>0.6736318407960199</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6319921491658489</v>
+        <v>0.6450690805145307</v>
       </c>
       <c r="K30" t="n">
-        <v>0.6286709805873569</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="L30" t="n">
-        <v>0.626095423563778</v>
+        <v>0.6223648029330889</v>
       </c>
       <c r="M30" t="n">
-        <v>0.6398009950248756</v>
+        <v>0.6756218905472637</v>
       </c>
       <c r="N30" t="n">
-        <v>0.6328740157480315</v>
+        <v>0.6479007633587788</v>
       </c>
       <c r="O30" t="n">
-        <v>0.5286212045793928</v>
+        <v>0.4952712792434047</v>
       </c>
       <c r="P30" t="n">
-        <v>0.520863309352518</v>
+        <v>0.4965675057208238</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7203980099502487</v>
+        <v>0.6477611940298508</v>
       </c>
       <c r="R30" t="n">
-        <v>0.6045929018789145</v>
+        <v>0.5621761658031089</v>
       </c>
       <c r="S30" t="n">
-        <v>0.5281234444997511</v>
+        <v>0.5111996017919362</v>
       </c>
       <c r="T30" t="n">
-        <v>0.5204301075268817</v>
+        <v>0.5095277547638773</v>
       </c>
       <c r="U30" t="n">
-        <v>0.7223880597014926</v>
+        <v>0.6119402985074627</v>
       </c>
       <c r="V30" t="n">
-        <v>0.605</v>
+        <v>0.5560578661844484</v>
       </c>
     </row>
     <row r="31">
@@ -2520,64 +2520,64 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6330645161290323</v>
+        <v>0.6169354838709677</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6135389888603257</v>
+        <v>0.5991489361702128</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7210473313192346</v>
+        <v>0.7089627391742196</v>
       </c>
       <c r="F31" t="n">
-        <v>0.662962962962963</v>
+        <v>0.6494464944649446</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6361373817819811</v>
+        <v>0.6222000995520159</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6162988115449916</v>
+        <v>0.6033613445378151</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7223880597014926</v>
+        <v>0.7144278606965174</v>
       </c>
       <c r="J31" t="n">
-        <v>0.6651397159871736</v>
+        <v>0.6542141230068338</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6361373817819811</v>
+        <v>0.6187157789945247</v>
       </c>
       <c r="L31" t="n">
-        <v>0.6159052453468697</v>
+        <v>0.60084388185654</v>
       </c>
       <c r="M31" t="n">
-        <v>0.7243781094527363</v>
+        <v>0.708457711442786</v>
       </c>
       <c r="N31" t="n">
-        <v>0.6657521719250115</v>
+        <v>0.650228310502283</v>
       </c>
       <c r="O31" t="n">
-        <v>0.5007466401194625</v>
+        <v>0.5241413638626182</v>
       </c>
       <c r="P31" t="n">
-        <v>0.5007923930269413</v>
+        <v>0.5184905660377358</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.6288557213930348</v>
+        <v>0.6835820895522388</v>
       </c>
       <c r="R31" t="n">
-        <v>0.5575650639611821</v>
+        <v>0.5896995708154505</v>
       </c>
       <c r="S31" t="n">
-        <v>0.5201592832254853</v>
+        <v>0.5301144848183176</v>
       </c>
       <c r="T31" t="n">
-        <v>0.5161036920659858</v>
+        <v>0.5229495861550038</v>
       </c>
       <c r="U31" t="n">
-        <v>0.6537313432835821</v>
+        <v>0.6915422885572139</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5768217734855136</v>
+        <v>0.5955441302485005</v>
       </c>
     </row>
   </sheetData>
